--- a/uploads/po/普通销售订单/BJ105/AP623003P_20200525_Bump_Prod.xlsx
+++ b/uploads/po/普通销售订单/BJ105/AP623003P_20200525_Bump_Prod.xlsx
@@ -2604,7 +2604,7 @@
         <v>28</v>
       </c>
       <c r="I2" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>29</v>
